--- a/data/trans_dic/P14_1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P14_1-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de la garganta o nariz)</t>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de la garganta o nariz) (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,27 +607,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,46%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>25,3%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,12; 33,94</t>
+          <t>7,85; 37,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 9,04</t>
+          <t>1,79; 15,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,16; 33,88</t>
+          <t>17,2; 44,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,57</t>
+          <t>0,99; 8,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,53; 30,58</t>
+          <t>17,0; 36,07</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>14,05%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,32</t>
+          <t>0,0; 9,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,01; 23,16</t>
+          <t>2,92; 21,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 9,58</t>
+          <t>0,0; 12,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,4; 28,43</t>
+          <t>10,89; 34,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 7,49</t>
+          <t>0,8; 7,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,82; 22,5</t>
+          <t>8,24; 22,33</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>30,95%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>24,72%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 7,39</t>
+          <t>0,0; 10,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,39; 34,71</t>
+          <t>19,7; 45,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 8,92</t>
+          <t>1,83; 10,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,4; 29,4</t>
+          <t>13,13; 29,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 6,75</t>
+          <t>1,81; 8,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,42; 29,28</t>
+          <t>18,59; 32,08</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>19,11%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,71</t>
+          <t>0,0; 8,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,08; 24,57</t>
+          <t>9,88; 26,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,75</t>
+          <t>1,0; 8,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,84; 27,35</t>
+          <t>13,28; 29,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,77</t>
+          <t>1,1; 6,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,28; 24,18</t>
+          <t>13,91; 25,52</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>18,4%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,47</t>
+          <t>0,0; 7,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,43; 21,26</t>
+          <t>8,58; 27,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,46</t>
+          <t>0,0; 9,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,23; 27,96</t>
+          <t>11,14; 32,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,8</t>
+          <t>0,0; 6,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,8; 21,84</t>
+          <t>11,96; 25,8</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>13,13%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,33; 22,35</t>
+          <t>5,13; 30,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 18,53</t>
+          <t>0,0; 12,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,82; 15,76</t>
+          <t>4,52; 24,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,25; 11,3</t>
+          <t>0,0; 6,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,33; 16,04</t>
+          <t>6,89; 22,48</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>19,51%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,64</t>
+          <t>0,68; 3,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,67; 21,92</t>
+          <t>13,67; 22,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,63</t>
+          <t>2,23; 6,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,88; 21,96</t>
+          <t>16,77; 25,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,3</t>
+          <t>1,87; 4,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,26; 21,15</t>
+          <t>16,69; 22,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de la garganta o nariz) (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>20511</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8570</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>36623</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8570</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>57134</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8294; 39937</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2398; 20753</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>20657; 53073</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2388; 21630</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>38387; 81454</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3006</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12399</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6093</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>25561</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9099</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>37960</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16837</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4187; 30232</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 20752</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13797; 43264</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2683; 25789</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>22266; 60322</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5407</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>41588</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12670</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>43383</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>18077</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>84971</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17433</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>26474; 60708</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4842; 28274</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>27491; 62564</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7710; 34740</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>63892; 110262</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4531</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>27871</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6796</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>38462</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11326</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>66333</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 15873</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>15926; 42182</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2187; 18309</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>24696; 54167</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4443; 25104</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>48273; 88586</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2716</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>22070</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2348</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>19491</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5065</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>41561</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12227</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>11333; 35817</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 11608</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10455; 30607</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 16580</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>27011; 58272</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12418</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3463</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>12856</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3463</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>25274</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4482; 26368</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16863</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>4749; 26108</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16164</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>13271; 43260</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>15660</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>136856</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>39939</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>176376</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>55599</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>313233</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>6019; 31473</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>104485; 173439</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>23044; 63942</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>141050; 210999</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>36046; 85434</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>267916; 359511</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>